--- a/regionseng/3/standard of living/expenditures.xlsx
+++ b/regionseng/3/standard of living/expenditures.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -319,7 +319,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -391,25 +391,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -434,6 +415,29 @@
     <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma" xfId="6" builtinId="3"/>
@@ -745,35 +749,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L72"/>
+  <dimension ref="A1:N72"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="50.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="9.140625" style="37"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:14" ht="30" customHeight="1">
+      <c r="A1" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="8">
         <v>2011</v>
@@ -808,8 +816,14 @@
       <c r="L2" s="9">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1">
+      <c r="M2" s="9">
+        <v>2022</v>
+      </c>
+      <c r="N2" s="36">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
@@ -843,11 +857,17 @@
       <c r="K3" s="14">
         <v>20.192909938747608</v>
       </c>
-      <c r="L3" s="28">
+      <c r="L3" s="14">
         <v>22.659865070646486</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1">
+      <c r="M3" s="22">
+        <v>26.803259770510646</v>
+      </c>
+      <c r="N3" s="26">
+        <v>25.71789530096888</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1">
       <c r="A4" s="10" t="s">
         <v>12</v>
       </c>
@@ -881,11 +901,17 @@
       <c r="K4" s="15">
         <v>15.595148437179974</v>
       </c>
-      <c r="L4" s="29">
+      <c r="L4" s="15">
         <v>18.037845624275057</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1">
+      <c r="M4" s="23">
+        <v>22.073543435489384</v>
+      </c>
+      <c r="N4" s="27">
+        <v>21.732266570514561</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
@@ -919,11 +945,17 @@
       <c r="K5" s="16">
         <v>8.3239970405353212</v>
       </c>
-      <c r="L5" s="30">
+      <c r="L5" s="16">
         <v>9.7230222439766454</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1">
+      <c r="M5" s="24">
+        <v>11.510403262185783</v>
+      </c>
+      <c r="N5" s="28">
+        <v>10.654883997690792</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
@@ -957,11 +989,17 @@
       <c r="K6" s="16">
         <v>0.38352453409131365</v>
       </c>
-      <c r="L6" s="30">
+      <c r="L6" s="16">
         <v>0.47079022384630836</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1">
+      <c r="M6" s="24">
+        <v>0.5804755620065053</v>
+      </c>
+      <c r="N6" s="28">
+        <v>0.79318136014811202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>2</v>
       </c>
@@ -995,11 +1033,17 @@
       <c r="K7" s="16">
         <v>0.52540622008419913</v>
       </c>
-      <c r="L7" s="30">
+      <c r="L7" s="16">
         <v>0.65987319307791115</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1">
+      <c r="M7" s="24">
+        <v>0.66377499767338854</v>
+      </c>
+      <c r="N7" s="28">
+        <v>1.1082708336495311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>3</v>
       </c>
@@ -1033,11 +1077,17 @@
       <c r="K8" s="16">
         <v>2.016999362040202</v>
       </c>
-      <c r="L8" s="30">
+      <c r="L8" s="16">
         <v>1.8466104475262959</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1">
+      <c r="M8" s="24">
+        <v>2.7184580786986032</v>
+      </c>
+      <c r="N8" s="28">
+        <v>2.2930456075096126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1">
       <c r="A9" s="12" t="s">
         <v>17</v>
       </c>
@@ -1071,11 +1121,17 @@
       <c r="K9" s="16">
         <v>1.8127670202045461</v>
       </c>
-      <c r="L9" s="30">
+      <c r="L9" s="16">
         <v>2.0928796105478971</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1">
+      <c r="M9" s="24">
+        <v>2.3724936786254247</v>
+      </c>
+      <c r="N9" s="28">
+        <v>2.3099843089522927</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1">
       <c r="A10" s="11" t="s">
         <v>4</v>
       </c>
@@ -1109,11 +1165,17 @@
       <c r="K10" s="16">
         <v>1.0659778138455824</v>
       </c>
-      <c r="L10" s="30">
+      <c r="L10" s="16">
         <v>1.5657798261260487</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1">
+      <c r="M10" s="24">
+        <v>2.0348036635162137</v>
+      </c>
+      <c r="N10" s="28">
+        <v>2.1029241540465988</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1">
       <c r="A11" s="11" t="s">
         <v>5</v>
       </c>
@@ -1147,11 +1209,17 @@
       <c r="K11" s="16">
         <v>4.6824390338261926E-2</v>
       </c>
-      <c r="L11" s="30">
+      <c r="L11" s="16">
         <v>5.9436979069391875E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1">
+      <c r="M11" s="24">
+        <v>0.12865768807093306</v>
+      </c>
+      <c r="N11" s="28">
+        <v>0.13540559219360351</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1">
       <c r="A12" s="11" t="s">
         <v>6</v>
       </c>
@@ -1185,11 +1253,17 @@
       <c r="K12" s="16">
         <v>1.4196520560405472</v>
       </c>
-      <c r="L12" s="30">
+      <c r="L12" s="16">
         <v>1.6194531001045609</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1">
+      <c r="M12" s="24">
+        <v>2.0644765047125326</v>
+      </c>
+      <c r="N12" s="28">
+        <v>2.3345707163240235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1">
       <c r="A13" s="10" t="s">
         <v>13</v>
       </c>
@@ -1223,11 +1297,17 @@
       <c r="K13" s="15">
         <v>4.5977615015676285</v>
       </c>
-      <c r="L13" s="29">
+      <c r="L13" s="15">
         <v>4.6220194463714224</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1">
+      <c r="M13" s="23">
+        <v>4.7297163350212621</v>
+      </c>
+      <c r="N13" s="27">
+        <v>3.9856287304543119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1">
       <c r="A14" s="10" t="s">
         <v>14</v>
       </c>
@@ -1261,11 +1341,17 @@
       <c r="K14" s="15">
         <v>3.9257967313385009</v>
       </c>
-      <c r="L14" s="29">
+      <c r="L14" s="15">
         <v>4.6339396674830118</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1">
+      <c r="M14" s="23">
+        <v>6.1512408620643617</v>
+      </c>
+      <c r="N14" s="27">
+        <v>8.4914957783107763</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1">
       <c r="A15" s="11" t="s">
         <v>7</v>
       </c>
@@ -1299,11 +1385,17 @@
       <c r="K15" s="16">
         <v>0.78933278288777664</v>
       </c>
-      <c r="L15" s="30">
+      <c r="L15" s="16">
         <v>0.69934100155576062</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1">
+      <c r="M15" s="24">
+        <v>0.84495794151814774</v>
+      </c>
+      <c r="N15" s="28">
+        <v>1.1276716810048419</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1">
       <c r="A16" s="11" t="s">
         <v>8</v>
       </c>
@@ -1337,11 +1429,17 @@
       <c r="K16" s="16">
         <v>0.44194705071512863</v>
       </c>
-      <c r="L16" s="30">
+      <c r="L16" s="16">
         <v>0.37431478733698531</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1">
+      <c r="M16" s="24">
+        <v>0.71877306987762424</v>
+      </c>
+      <c r="N16" s="28">
+        <v>1.3958102871195475</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1">
       <c r="A17" s="11" t="s">
         <v>9</v>
       </c>
@@ -1375,11 +1473,17 @@
       <c r="K17" s="16">
         <v>2.4470894118893942</v>
       </c>
-      <c r="L17" s="30">
+      <c r="L17" s="16">
         <v>3.2223882213090262</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1">
+      <c r="M17" s="24">
+        <v>4.3004535258528387</v>
+      </c>
+      <c r="N17" s="28">
+        <v>5.2482080322640732</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1">
       <c r="A18" s="11" t="s">
         <v>10</v>
       </c>
@@ -1413,11 +1517,17 @@
       <c r="K18" s="16">
         <v>0.24742748584620153</v>
       </c>
-      <c r="L18" s="30">
+      <c r="L18" s="16">
         <v>0.33789565728123988</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1">
+      <c r="M18" s="24">
+        <v>0.28705632481575011</v>
+      </c>
+      <c r="N18" s="28">
+        <v>0.71980577792231226</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1">
       <c r="A19" s="10" t="s">
         <v>15</v>
       </c>
@@ -1451,11 +1561,17 @@
       <c r="K19" s="15">
         <v>19.520945168518477</v>
       </c>
-      <c r="L19" s="29">
+      <c r="L19" s="15">
         <v>22.67178529175807</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1">
+      <c r="M19" s="23">
+        <v>28.224784297553747</v>
+      </c>
+      <c r="N19" s="27">
+        <v>30.223762348825339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1">
       <c r="A20" s="13" t="s">
         <v>16</v>
       </c>
@@ -1489,11 +1605,17 @@
       <c r="K20" s="17">
         <v>24.118706670086098</v>
       </c>
-      <c r="L20" s="31">
+      <c r="L20" s="17">
         <v>27.293804738129491</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="15">
+      <c r="M20" s="25">
+        <v>32.954500632575005</v>
+      </c>
+      <c r="N20" s="29">
+        <v>34.209391079279655</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1504,7 +1626,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="15">
+    <row r="22" spans="1:14" ht="15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1515,23 +1637,25 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="30" customHeight="1">
-      <c r="A23" s="24" t="s">
+    <row r="23" spans="1:14" ht="30" customHeight="1">
+      <c r="A23" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-    </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1">
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="8">
         <v>2011</v>
@@ -1566,8 +1690,14 @@
       <c r="L24" s="9">
         <v>2021</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1">
+      <c r="M24" s="9">
+        <v>2022</v>
+      </c>
+      <c r="N24" s="36">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1">
       <c r="A25" s="10" t="s">
         <v>11</v>
       </c>
@@ -1601,11 +1731,17 @@
       <c r="K25" s="14">
         <v>604.42479514239108</v>
       </c>
-      <c r="L25" s="28">
+      <c r="L25" s="14">
         <v>659.52090009685003</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1">
+      <c r="M25" s="22">
+        <v>811.26259897690761</v>
+      </c>
+      <c r="N25" s="26">
+        <v>767.73354276165355</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15" customHeight="1">
       <c r="A26" s="10" t="s">
         <v>12</v>
       </c>
@@ -1639,11 +1775,17 @@
       <c r="K26" s="15">
         <v>466.80218096106188</v>
       </c>
-      <c r="L26" s="29">
+      <c r="L26" s="15">
         <v>524.99589670286218</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1">
+      <c r="M26" s="23">
+        <v>668.10680377790516</v>
+      </c>
+      <c r="N26" s="27">
+        <v>648.75409947692094</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15" customHeight="1">
       <c r="A27" s="11" t="s">
         <v>0</v>
       </c>
@@ -1677,11 +1819,17 @@
       <c r="K27" s="16">
         <v>249.15825511295645</v>
       </c>
-      <c r="L27" s="30">
+      <c r="L27" s="16">
         <v>282.99093405970672</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1">
+      <c r="M27" s="24">
+        <v>348.38895513846717</v>
+      </c>
+      <c r="N27" s="28">
+        <v>318.07081192034531</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15" customHeight="1">
       <c r="A28" s="11" t="s">
         <v>1</v>
       </c>
@@ -1715,11 +1863,17 @@
       <c r="K28" s="16">
         <v>11.479857962690469</v>
       </c>
-      <c r="L28" s="30">
+      <c r="L28" s="16">
         <v>13.702464300642738</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1">
+      <c r="M28" s="24">
+        <v>17.56943435641697</v>
+      </c>
+      <c r="N28" s="28">
+        <v>23.67814039806267</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15" customHeight="1">
       <c r="A29" s="11" t="s">
         <v>2</v>
       </c>
@@ -1753,11 +1907,17 @@
       <c r="K29" s="16">
         <v>15.726735171118488</v>
       </c>
-      <c r="L29" s="30">
+      <c r="L29" s="16">
         <v>19.205770241424929</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1">
+      <c r="M29" s="24">
+        <v>20.090684280904718</v>
+      </c>
+      <c r="N29" s="28">
+        <v>33.084227286091775</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15" customHeight="1">
       <c r="A30" s="11" t="s">
         <v>3</v>
       </c>
@@ -1791,11 +1951,17 @@
       <c r="K30" s="16">
         <v>60.373885185519455</v>
       </c>
-      <c r="L30" s="30">
+      <c r="L30" s="16">
         <v>53.746047502216825</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1">
+      <c r="M30" s="24">
+        <v>82.280416076898106</v>
+      </c>
+      <c r="N30" s="28">
+        <v>68.45225891797925</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15" customHeight="1">
       <c r="A31" s="12" t="s">
         <v>17</v>
       </c>
@@ -1829,11 +1995,17 @@
       <c r="K31" s="16">
         <v>54.260695370385591</v>
       </c>
-      <c r="L31" s="30">
+      <c r="L31" s="16">
         <v>60.913771562167298</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1">
+      <c r="M31" s="24">
+        <v>71.809003988968072</v>
+      </c>
+      <c r="N31" s="28">
+        <v>68.957914964719649</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15" customHeight="1">
       <c r="A32" s="11" t="s">
         <v>4</v>
       </c>
@@ -1867,11 +2039,17 @@
       <c r="K32" s="16">
         <v>31.907408279161118</v>
       </c>
-      <c r="L32" s="30">
+      <c r="L32" s="16">
         <v>45.57240376589229</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1">
+      <c r="M32" s="24">
+        <v>61.58803528398019</v>
+      </c>
+      <c r="N32" s="28">
+        <v>62.776731612420328</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15" customHeight="1">
       <c r="A33" s="11" t="s">
         <v>5</v>
       </c>
@@ -1905,11 +2083,17 @@
       <c r="K33" s="16">
         <v>1.4015722658953551</v>
       </c>
-      <c r="L33" s="30">
+      <c r="L33" s="16">
         <v>1.7299277737387071</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="15" customHeight="1">
+      <c r="M33" s="24">
+        <v>3.8941222558914483</v>
+      </c>
+      <c r="N33" s="28">
+        <v>4.042143176491531</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15" customHeight="1">
       <c r="A34" s="11" t="s">
         <v>6</v>
       </c>
@@ -1943,11 +2127,17 @@
       <c r="K34" s="16">
         <v>42.493771613334957</v>
       </c>
-      <c r="L34" s="30">
+      <c r="L34" s="16">
         <v>47.134577497072549</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="15" customHeight="1">
+      <c r="M34" s="24">
+        <v>62.486152396378586</v>
+      </c>
+      <c r="N34" s="28">
+        <v>69.691871200810567</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15" customHeight="1">
       <c r="A35" s="10" t="s">
         <v>13</v>
       </c>
@@ -1981,11 +2171,17 @@
       <c r="K35" s="15">
         <v>137.622614181329</v>
       </c>
-      <c r="L35" s="29">
+      <c r="L35" s="15">
         <v>134.52500339398782</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="15" customHeight="1">
+      <c r="M35" s="23">
+        <v>143.15579519900245</v>
+      </c>
+      <c r="N35" s="27">
+        <v>118.97944328473274</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15" customHeight="1">
       <c r="A36" s="10" t="s">
         <v>14</v>
       </c>
@@ -2019,11 +2215,17 @@
       <c r="K36" s="15">
         <v>117.50901144548506</v>
       </c>
-      <c r="L36" s="29">
+      <c r="L36" s="15">
         <v>134.87194433703229</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="15" customHeight="1">
+      <c r="M36" s="23">
+        <v>186.18152013665372</v>
+      </c>
+      <c r="N36" s="27">
+        <v>253.48910013575485</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15" customHeight="1">
       <c r="A37" s="11" t="s">
         <v>7</v>
       </c>
@@ -2057,11 +2259,17 @@
       <c r="K37" s="16">
         <v>23.626723787869661</v>
       </c>
-      <c r="L37" s="30">
+      <c r="L37" s="16">
         <v>20.354490434197849</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" ht="15" customHeight="1">
+      <c r="M37" s="24">
+        <v>25.574604788047797</v>
+      </c>
+      <c r="N37" s="28">
+        <v>33.663383593338651</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="15" customHeight="1">
       <c r="A38" s="11" t="s">
         <v>8</v>
       </c>
@@ -2095,11 +2303,17 @@
       <c r="K38" s="16">
         <v>13.22859144138009</v>
       </c>
-      <c r="L38" s="30">
+      <c r="L38" s="16">
         <v>10.894523188659322</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="15" customHeight="1">
+      <c r="M38" s="24">
+        <v>21.755328036072783</v>
+      </c>
+      <c r="N38" s="28">
+        <v>41.667887835015812</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="15" customHeight="1">
       <c r="A39" s="11" t="s">
         <v>9</v>
       </c>
@@ -2133,11 +2347,17 @@
       <c r="K39" s="16">
         <v>73.247566644082013</v>
       </c>
-      <c r="L39" s="30">
+      <c r="L39" s="16">
         <v>93.788395189176811</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="15" customHeight="1">
+      <c r="M39" s="24">
+        <v>130.1631642581477</v>
+      </c>
+      <c r="N39" s="28">
+        <v>156.6701045558915</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="15" customHeight="1">
       <c r="A40" s="11" t="s">
         <v>10</v>
       </c>
@@ -2171,11 +2391,17 @@
       <c r="K40" s="16">
         <v>7.406129572153314</v>
       </c>
-      <c r="L40" s="30">
+      <c r="L40" s="16">
         <v>9.8345355249982607</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="15" customHeight="1">
+      <c r="M40" s="24">
+        <v>8.6884230543853782</v>
+      </c>
+      <c r="N40" s="28">
+        <v>21.487724151508854</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15" customHeight="1">
       <c r="A41" s="10" t="s">
         <v>15</v>
       </c>
@@ -2209,11 +2435,17 @@
       <c r="K41" s="15">
         <v>584.31119240654709</v>
       </c>
-      <c r="L41" s="29">
+      <c r="L41" s="15">
         <v>659.86784103989419</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="15" customHeight="1">
+      <c r="M41" s="23">
+        <v>854.28832391455876</v>
+      </c>
+      <c r="N41" s="27">
+        <v>902.24319961267611</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15" customHeight="1">
       <c r="A42" s="13" t="s">
         <v>16</v>
       </c>
@@ -2247,11 +2479,17 @@
       <c r="K42" s="17">
         <v>721.93380658787589</v>
       </c>
-      <c r="L42" s="31">
+      <c r="L42" s="17">
         <v>794.39284443388215</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="15">
+      <c r="M42" s="25">
+        <v>997.44411911356121</v>
+      </c>
+      <c r="N42" s="29">
+        <v>1021.2226428974087</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2262,7 +2500,7 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:12" ht="15">
+    <row r="44" spans="1:14" ht="15">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2273,23 +2511,25 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:12" ht="30" customHeight="1">
-      <c r="A45" s="24" t="s">
+    <row r="45" spans="1:14" ht="30" customHeight="1">
+      <c r="A45" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
-    </row>
-    <row r="46" spans="1:12" ht="15" customHeight="1">
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="32"/>
+    </row>
+    <row r="46" spans="1:14" ht="15" customHeight="1">
       <c r="A46" s="4"/>
       <c r="B46" s="8">
         <v>2011</v>
@@ -2324,8 +2564,14 @@
       <c r="L46" s="9">
         <v>2021</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="15" customHeight="1">
+      <c r="M46" s="9">
+        <v>2022</v>
+      </c>
+      <c r="N46" s="36">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="15" customHeight="1">
       <c r="A47" s="18" t="s">
         <v>11</v>
       </c>
@@ -2359,11 +2605,17 @@
       <c r="K47" s="14">
         <v>186.80015456959819</v>
       </c>
-      <c r="L47" s="32">
+      <c r="L47" s="14">
         <v>211.57473058856482</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="15" customHeight="1">
+      <c r="M47" s="26">
+        <v>254.42831430289169</v>
+      </c>
+      <c r="N47" s="26">
+        <v>249.42193179203599</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15" customHeight="1">
       <c r="A48" s="18" t="s">
         <v>12</v>
       </c>
@@ -2397,11 +2649,17 @@
       <c r="K48" s="15">
         <v>144.2672773482258</v>
       </c>
-      <c r="L48" s="33">
+      <c r="L48" s="15">
         <v>168.41902264006899</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="15" customHeight="1">
+      <c r="M48" s="27">
+        <v>209.53176945895891</v>
+      </c>
+      <c r="N48" s="27">
+        <v>210.76778821916349</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="15" customHeight="1">
       <c r="A49" s="19" t="s">
         <v>0</v>
       </c>
@@ -2435,11 +2693,17 @@
       <c r="K49" s="16">
         <v>77.003460052341239</v>
       </c>
-      <c r="L49" s="34">
+      <c r="L49" s="16">
         <v>90.783674367099451</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="15" customHeight="1">
+      <c r="M49" s="28">
+        <v>109.2618033783523</v>
+      </c>
+      <c r="N49" s="28">
+        <v>103.33511815890976</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="15" customHeight="1">
       <c r="A50" s="19" t="s">
         <v>1</v>
       </c>
@@ -2473,11 +2737,17 @@
       <c r="K50" s="16">
         <v>3.54790084573288</v>
       </c>
-      <c r="L50" s="34">
+      <c r="L50" s="16">
         <v>4.3957593950126306</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="15" customHeight="1">
+      <c r="M50" s="28">
+        <v>5.5101289917664777</v>
+      </c>
+      <c r="N50" s="28">
+        <v>7.6925745592456627</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="15" customHeight="1">
       <c r="A51" s="19" t="s">
         <v>2</v>
       </c>
@@ -2511,11 +2781,17 @@
       <c r="K51" s="16">
         <v>4.860417018709482</v>
       </c>
-      <c r="L51" s="34">
+      <c r="L51" s="16">
         <v>6.1612234941737887</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="15" customHeight="1">
+      <c r="M51" s="28">
+        <v>6.300843821998618</v>
+      </c>
+      <c r="N51" s="28">
+        <v>10.748432134227654</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="15" customHeight="1">
       <c r="A52" s="19" t="s">
         <v>3</v>
       </c>
@@ -2549,11 +2825,17 @@
       <c r="K52" s="16">
         <v>18.658816076473766</v>
       </c>
-      <c r="L52" s="34">
+      <c r="L52" s="16">
         <v>17.241766741299429</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="15" customHeight="1">
+      <c r="M52" s="28">
+        <v>25.804798087556883</v>
+      </c>
+      <c r="N52" s="28">
+        <v>22.238828582941771</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="15" customHeight="1">
       <c r="A53" s="20" t="s">
         <v>17</v>
       </c>
@@ -2587,11 +2869,17 @@
       <c r="K53" s="16">
         <v>16.769507743066828</v>
       </c>
-      <c r="L53" s="34">
+      <c r="L53" s="16">
         <v>19.541177247766321</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="15" customHeight="1">
+      <c r="M53" s="28">
+        <v>22.520752047146736</v>
+      </c>
+      <c r="N53" s="28">
+        <v>22.40310655306488</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="15" customHeight="1">
       <c r="A54" s="19" t="s">
         <v>4</v>
       </c>
@@ -2625,11 +2913,17 @@
       <c r="K54" s="16">
         <v>9.8611255632860626</v>
       </c>
-      <c r="L54" s="34">
+      <c r="L54" s="16">
         <v>14.619656553152517</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="15" customHeight="1">
+      <c r="M54" s="28">
+        <v>19.315250103100254</v>
+      </c>
+      <c r="N54" s="28">
+        <v>20.394958404495707</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="15" customHeight="1">
       <c r="A55" s="19" t="s">
         <v>5</v>
       </c>
@@ -2663,11 +2957,17 @@
       <c r="K55" s="16">
         <v>0.43316210389422538</v>
       </c>
-      <c r="L55" s="34">
+      <c r="L55" s="16">
         <v>0.55496194679000266</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" ht="15" customHeight="1">
+      <c r="M55" s="28">
+        <v>1.2212752843596051</v>
+      </c>
+      <c r="N55" s="28">
+        <v>1.3132149417802816</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="15" customHeight="1">
       <c r="A56" s="19" t="s">
         <v>6</v>
       </c>
@@ -2701,11 +3001,17 @@
       <c r="K56" s="16">
         <v>13.132887944721338</v>
       </c>
-      <c r="L56" s="34">
+      <c r="L56" s="16">
         <v>15.12080289477484</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" ht="15" customHeight="1">
+      <c r="M56" s="28">
+        <v>19.596917744678052</v>
+      </c>
+      <c r="N56" s="28">
+        <v>22.641554884497815</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15" customHeight="1">
       <c r="A57" s="18" t="s">
         <v>13</v>
       </c>
@@ -2739,11 +3045,17 @@
       <c r="K57" s="15">
         <v>42.532877221372317</v>
       </c>
-      <c r="L57" s="33">
+      <c r="L57" s="15">
         <v>43.155707948495824</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" ht="15" customHeight="1">
+      <c r="M57" s="27">
+        <v>44.89654484393278</v>
+      </c>
+      <c r="N57" s="27">
+        <v>38.65414357287252</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15" customHeight="1">
       <c r="A58" s="18" t="s">
         <v>14</v>
       </c>
@@ -2777,11 +3089,17 @@
       <c r="K58" s="15">
         <v>36.316679391298173</v>
       </c>
-      <c r="L58" s="33">
+      <c r="L58" s="15">
         <v>43.267006827036276</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" ht="15" customHeight="1">
+      <c r="M58" s="27">
+        <v>58.390280018402592</v>
+      </c>
+      <c r="N58" s="27">
+        <v>82.353756248101746</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="15" customHeight="1">
       <c r="A59" s="19" t="s">
         <v>7</v>
       </c>
@@ -2815,11 +3133,17 @@
       <c r="K59" s="16">
         <v>7.3019434196234849</v>
       </c>
-      <c r="L59" s="34">
+      <c r="L59" s="16">
         <v>6.5297336737175815</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" ht="15" customHeight="1">
+      <c r="M59" s="28">
+        <v>8.020711904371769</v>
+      </c>
+      <c r="N59" s="28">
+        <v>10.936588932019026</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="15" customHeight="1">
       <c r="A60" s="19" t="s">
         <v>8</v>
       </c>
@@ -2853,11 +3177,17 @@
       <c r="K60" s="16">
         <v>4.0883546569358051</v>
       </c>
-      <c r="L60" s="34">
+      <c r="L60" s="16">
         <v>3.494970073265276</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" ht="15" customHeight="1">
+      <c r="M60" s="28">
+        <v>6.8229096796831312</v>
+      </c>
+      <c r="N60" s="28">
+        <v>13.537099134836209</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="15" customHeight="1">
       <c r="A61" s="19" t="s">
         <v>9</v>
       </c>
@@ -2891,11 +3221,17 @@
       <c r="K61" s="16">
         <v>22.637484234474677</v>
       </c>
-      <c r="L61" s="34">
+      <c r="L61" s="16">
         <v>30.087377733700286</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" ht="15" customHeight="1">
+      <c r="M61" s="28">
+        <v>40.821793717959373</v>
+      </c>
+      <c r="N61" s="28">
+        <v>50.899117930714588</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="15" customHeight="1">
       <c r="A62" s="19" t="s">
         <v>10</v>
       </c>
@@ -2929,11 +3265,17 @@
       <c r="K62" s="16">
         <v>2.2888970802642086</v>
       </c>
-      <c r="L62" s="34">
+      <c r="L62" s="16">
         <v>3.1549253463531217</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" ht="15" customHeight="1">
+      <c r="M62" s="28">
+        <v>2.724864716388308</v>
+      </c>
+      <c r="N62" s="28">
+        <v>6.9809502505319214</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="15" customHeight="1">
       <c r="A63" s="18" t="s">
         <v>15</v>
       </c>
@@ -2967,11 +3309,17 @@
       <c r="K63" s="15">
         <v>180.58395673952401</v>
       </c>
-      <c r="L63" s="33">
+      <c r="L63" s="15">
         <v>211.6860294671053</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" ht="15" customHeight="1">
+      <c r="M63" s="27">
+        <v>267.9220494773615</v>
+      </c>
+      <c r="N63" s="27">
+        <v>293.12154446726527</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="15" customHeight="1">
       <c r="A64" s="21" t="s">
         <v>16</v>
       </c>
@@ -3005,125 +3353,139 @@
       <c r="K64" s="17">
         <v>223.11683396089626</v>
       </c>
-      <c r="L64" s="35">
+      <c r="L64" s="17">
         <v>254.84173741560107</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" ht="15" customHeight="1">
-      <c r="A65" s="25" t="s">
+      <c r="M64" s="29">
+        <v>312.81859432129426</v>
+      </c>
+      <c r="N64" s="29">
+        <v>331.77568804013771</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="15" customHeight="1">
+      <c r="A65" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="25"/>
-      <c r="I65" s="25"/>
-      <c r="J65" s="25"/>
-      <c r="K65" s="25"/>
-      <c r="L65" s="25"/>
-    </row>
-    <row r="66" spans="1:12" ht="15" customHeight="1">
-      <c r="A66" s="26" t="s">
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="33"/>
+      <c r="J65" s="33"/>
+      <c r="K65" s="33"/>
+      <c r="L65" s="33"/>
+      <c r="M65" s="33"/>
+      <c r="N65" s="33"/>
+    </row>
+    <row r="66" spans="1:14" ht="15" customHeight="1">
+      <c r="A66" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B66" s="26"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="26"/>
-      <c r="J66" s="26"/>
-      <c r="K66" s="26"/>
-      <c r="L66" s="26"/>
-    </row>
-    <row r="67" spans="1:12" ht="15" customHeight="1">
-      <c r="A67" s="27" t="s">
+      <c r="B66" s="34"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="34"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="34"/>
+      <c r="M66" s="34"/>
+      <c r="N66" s="34"/>
+    </row>
+    <row r="67" spans="1:14" ht="15" customHeight="1">
+      <c r="A67" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="27"/>
-      <c r="K67" s="27"/>
-      <c r="L67" s="27"/>
-    </row>
-    <row r="68" spans="1:12" ht="45" customHeight="1">
-      <c r="A68" s="22" t="s">
+      <c r="B67" s="35"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="35"/>
+      <c r="I67" s="35"/>
+      <c r="J67" s="35"/>
+      <c r="K67" s="35"/>
+      <c r="L67" s="35"/>
+      <c r="M67" s="35"/>
+      <c r="N67" s="35"/>
+    </row>
+    <row r="68" spans="1:14" ht="45" customHeight="1">
+      <c r="A68" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="22"/>
-      <c r="J68" s="22"/>
-      <c r="K68" s="22"/>
-      <c r="L68" s="22"/>
-    </row>
-    <row r="69" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A69" s="23"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="23"/>
-      <c r="I69" s="23"/>
-      <c r="J69" s="23"/>
-    </row>
-    <row r="70" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A70" s="23"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="23"/>
-      <c r="I70" s="23"/>
-      <c r="J70" s="23"/>
-    </row>
-    <row r="71" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A71" s="23"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="23"/>
-      <c r="H71" s="23"/>
-      <c r="I71" s="23"/>
-      <c r="J71" s="23"/>
-    </row>
-    <row r="72" spans="1:12" ht="15">
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="30"/>
+      <c r="L68" s="30"/>
+      <c r="M68" s="30"/>
+      <c r="N68" s="30"/>
+    </row>
+    <row r="69" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A69" s="31"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="31"/>
+    </row>
+    <row r="70" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A70" s="31"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="31"/>
+    </row>
+    <row r="71" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A71" s="31"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="31"/>
+      <c r="H71" s="31"/>
+      <c r="I71" s="31"/>
+      <c r="J71" s="31"/>
+    </row>
+    <row r="72" spans="1:14" ht="15">
       <c r="A72" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A68:L68"/>
+    <mergeCell ref="A68:N68"/>
     <mergeCell ref="A69:J69"/>
     <mergeCell ref="A70:J70"/>
     <mergeCell ref="A71:J71"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A23:L23"/>
-    <mergeCell ref="A45:L45"/>
-    <mergeCell ref="A65:L65"/>
-    <mergeCell ref="A66:L66"/>
-    <mergeCell ref="A67:L67"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A23:N23"/>
+    <mergeCell ref="A45:N45"/>
+    <mergeCell ref="A65:N65"/>
+    <mergeCell ref="A66:N66"/>
+    <mergeCell ref="A67:N67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
